--- a/server-res/excel/Cfg_ItemUpgrade.xlsx
+++ b/server-res/excel/Cfg_ItemUpgrade.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>int32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,19 +33,12 @@
     <t>合成类型</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级需求</t>
   </si>
   <si>
     <t>成功率</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>succ_rate</t>
   </si>
   <si>
@@ -56,9 +46,6 @@
   </si>
   <si>
     <t>req_data_list</t>
-  </si>
-  <si>
-    <t>repeated ReqData</t>
   </si>
   <si>
     <t>材料列表</t>
@@ -80,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,6 +129,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -189,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,22 +447,22 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="7"/>
@@ -492,22 +482,22 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -518,23 +508,23 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+      <c r="A3" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10100001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -545,13 +535,13 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>10000001</v>
+      <c r="A4" s="3">
+        <v>10000002</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>10100001</v>
       </c>
       <c r="D4" s="1">
@@ -561,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -570,33 +560,6 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>10000002</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10100001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server-res/excel/Cfg_ItemUpgrade.xlsx
+++ b/server-res/excel/Cfg_ItemUpgrade.xlsx
@@ -52,15 +52,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"req_type":"1","req_num":"1000"},{"req_type":"2","req_num":"1000"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>main_itemtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主物品的物品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"req_type":1,"req_num":1000},{"req_type":2,"req_num":1000}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +426,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
